--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1990.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1990.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.001*"foreign" + 0.001*"import" + 0.001*"bank" + 0.001*"exchange" + 0.001*"currency" + 0.001*"export" + 0.001*"payment" + 0.001*"may" + 0.001*"rate" + 0.001*"require"</t>
-  </si>
-  <si>
-    <t>0.003*"foreign" + 0.002*"import" + 0.002*"may" + 0.002*"bank" + 0.002*"exchange" + 0.002*"export" + 0.001*"account" + 0.001*"currency" + 0.001*"rate" + 0.001*"payment"</t>
-  </si>
-  <si>
-    <t>0.020*"foreign" + 0.016*"import" + 0.015*"bank" + 0.013*"export" + 0.012*"may" + 0.010*"exchange" + 0.008*"payment" + 0.008*"rate" + 0.008*"currency" + 0.008*"account"</t>
-  </si>
-  <si>
-    <t>0.021*"foreign" + 0.018*"bank" + 0.018*"import" + 0.017*"exchange" + 0.013*"may" + 0.013*"export" + 0.012*"currency" + 0.009*"account" + 0.009*"payment" + 0.009*"rate"</t>
-  </si>
-  <si>
-    <t>0.004*"foreign" + 0.003*"bank" + 0.003*"import" + 0.003*"exchange" + 0.003*"may" + 0.003*"export" + 0.002*"account" + 0.002*"currency" + 0.002*"rate" + 0.002*"require"</t>
+    <t>0.051*"export" + 0.027*"gold" + 0.023*"import" + 0.020*"require" + 0.018*"license" + 0.017*"custom" + 0.013*"ministry" + 0.012*"issue" + 0.012*"trade" + 0.012*"duty"</t>
+  </si>
+  <si>
+    <t>0.090*"import" + 0.031*"regulation" + 0.029*"originate" + 0.023*"commission" + 0.022*"charge" + 0.019*"countervail" + 0.016*"impose" + 0.016*"product" + 0.015*"payment" + 0.015*"certain"</t>
+  </si>
+  <si>
+    <t>0.058*"bank" + 0.034*"foreign" + 0.028*"exchange" + 0.022*"fund" + 0.019*"capital" + 0.017*"payment" + 0.017*"central" + 0.017*"international" + 0.016*"monetary" + 0.016*"investment"</t>
+  </si>
+  <si>
+    <t>0.052*"rate" + 0.049*"percent" + 0.024*"exchange" + 0.016*"u" + 0.015*"tax" + 0.015*"value" + 0.014*"per" + 0.012*"currency" + 0.011*"market" + 0.010*"july"</t>
+  </si>
+  <si>
+    <t>0.042*"foreign" + 0.038*"may" + 0.033*"currency" + 0.032*"account" + 0.020*"exchange" + 0.016*"resident" + 0.015*"country" + 0.015*"nonresident" + 0.013*"must" + 0.012*"bank"</t>
   </si>
 </sst>
 </file>
